--- a/astar_swarm100x200.xlsx
+++ b/astar_swarm100x200.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>View_Range</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Agent_Step_Time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -518,6 +523,9 @@
       <c r="J2" t="n">
         <v>2</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.179544</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -552,6 +560,9 @@
       <c r="J3" t="n">
         <v>2</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.183694</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -586,6 +597,9 @@
       <c r="J4" t="n">
         <v>2</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.17948</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -620,6 +634,9 @@
       <c r="J5" t="n">
         <v>2</v>
       </c>
+      <c r="K5" t="n">
+        <v>0.17716</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -654,6 +671,9 @@
       <c r="J6" t="n">
         <v>2</v>
       </c>
+      <c r="K6" t="n">
+        <v>0.1691025</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -688,6 +708,9 @@
       <c r="J7" t="n">
         <v>2</v>
       </c>
+      <c r="K7" t="n">
+        <v>0.1642291666666667</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -722,6 +745,9 @@
       <c r="J8" t="n">
         <v>2</v>
       </c>
+      <c r="K8" t="n">
+        <v>0.1641615384615385</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -756,6 +782,9 @@
       <c r="J9" t="n">
         <v>2</v>
       </c>
+      <c r="K9" t="n">
+        <v>0.1521361538461538</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -790,6 +819,9 @@
       <c r="J10" t="n">
         <v>2</v>
       </c>
+      <c r="K10" t="n">
+        <v>0.179185</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -824,6 +856,9 @@
       <c r="J11" t="n">
         <v>2</v>
       </c>
+      <c r="K11" t="n">
+        <v>0.1601478571428571</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -858,6 +893,9 @@
       <c r="J12" t="n">
         <v>2</v>
       </c>
+      <c r="K12" t="n">
+        <v>0.180188</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -892,6 +930,9 @@
       <c r="J13" t="n">
         <v>2</v>
       </c>
+      <c r="K13" t="n">
+        <v>0.159248</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -926,6 +967,9 @@
       <c r="J14" t="n">
         <v>2</v>
       </c>
+      <c r="K14" t="n">
+        <v>0.163416875</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -960,6 +1004,9 @@
       <c r="J15" t="n">
         <v>2</v>
       </c>
+      <c r="K15" t="n">
+        <v>0.1517325</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -994,6 +1041,9 @@
       <c r="J16" t="n">
         <v>2</v>
       </c>
+      <c r="K16" t="n">
+        <v>0.1552164705882353</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1028,6 +1078,9 @@
       <c r="J17" t="n">
         <v>2</v>
       </c>
+      <c r="K17" t="n">
+        <v>0.1543411764705882</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1062,6 +1115,9 @@
       <c r="J18" t="n">
         <v>2</v>
       </c>
+      <c r="K18" t="n">
+        <v>0.1769122222222222</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1096,6 +1152,9 @@
       <c r="J19" t="n">
         <v>2</v>
       </c>
+      <c r="K19" t="n">
+        <v>0.1700877777777778</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1130,6 +1189,9 @@
       <c r="J20" t="n">
         <v>2</v>
       </c>
+      <c r="K20" t="n">
+        <v>0.117598947368421</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1164,6 +1226,9 @@
       <c r="J21" t="n">
         <v>2</v>
       </c>
+      <c r="K21" t="n">
+        <v>0.1132731578947368</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1198,6 +1263,9 @@
       <c r="J22" t="n">
         <v>2</v>
       </c>
+      <c r="K22" t="n">
+        <v>0.131597</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1232,6 +1300,9 @@
       <c r="J23" t="n">
         <v>2</v>
       </c>
+      <c r="K23" t="n">
+        <v>0.1442885</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1266,6 +1337,9 @@
       <c r="J24" t="n">
         <v>2</v>
       </c>
+      <c r="K24" t="n">
+        <v>0.1320528571428571</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1300,6 +1374,9 @@
       <c r="J25" t="n">
         <v>2</v>
       </c>
+      <c r="K25" t="n">
+        <v>0.1493842857142857</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1334,6 +1411,9 @@
       <c r="J26" t="n">
         <v>2</v>
       </c>
+      <c r="K26" t="n">
+        <v>0.164145</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1368,6 +1448,9 @@
       <c r="J27" t="n">
         <v>2</v>
       </c>
+      <c r="K27" t="n">
+        <v>0.1536881818181818</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1402,6 +1485,9 @@
       <c r="J28" t="n">
         <v>2</v>
       </c>
+      <c r="K28" t="n">
+        <v>0.1238934782608696</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1436,6 +1522,9 @@
       <c r="J29" t="n">
         <v>2</v>
       </c>
+      <c r="K29" t="n">
+        <v>0.10411</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1470,6 +1559,9 @@
       <c r="J30" t="n">
         <v>2</v>
       </c>
+      <c r="K30" t="n">
+        <v>0.1122420833333333</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1504,6 +1596,9 @@
       <c r="J31" t="n">
         <v>2</v>
       </c>
+      <c r="K31" t="n">
+        <v>0.1497141666666667</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1538,6 +1633,9 @@
       <c r="J32" t="n">
         <v>2</v>
       </c>
+      <c r="K32" t="n">
+        <v>0.1180084</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1571,6 +1669,9 @@
       </c>
       <c r="J33" t="n">
         <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.136724</v>
       </c>
     </row>
   </sheetData>
